--- a/biology/Origine et évolution du vivant/Plumatella_evelinae/Plumatella_evelinae.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella_evelinae/Plumatella_evelinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Plumatella evelinae  est l’une de la presque centaine d'espèce de bryozoaire d'eau douce (74 espèces de phylactolaemates et  20 gymnolaemates selon les données revues par JA Massard &amp; G Geimer en 2008[2]) au sein de la famille des Plumatellidae.
-Cette espèce a été décrite par Marcus en 1941[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plumatella evelinae  est l’une de la presque centaine d'espèce de bryozoaire d'eau douce (74 espèces de phylactolaemates et  20 gymnolaemates selon les données revues par JA Massard &amp; G Geimer en 2008) au sein de la famille des Plumatellidae.
+Cette espèce a été décrite par Marcus en 1941.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom de genre (Plumatella) provient du fait que, vu de près, ses polypes donnent à une colonie dense un aspect « plumeux » ;
 Son nom d'espèce est « evelinae»</t>
@@ -543,7 +557,9 @@
           <t>Identification  taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce ne peut pas être identifiée facilement. Les critères d’identifications sont la taille, la forme et les motifs de ses propagules (statoblastes), flottoblastes (statoblastes à anneau flottant) qui doivent être observés au microscope optique ou au microscope électronique.
 </t>
